--- a/SA Done.xlsx
+++ b/SA Done.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stephen.holwell\Desktop\Schedules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\randy.parsons\Desktop\Scheduling Stuff\EXCEL SHEETS FOR ACCESS\Finalized Sch\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1161" sheetId="1" r:id="rId1"/>
@@ -2424,8 +2424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>14</v>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>14</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>14</v>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>14</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>14</v>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>14</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>14</v>
@@ -2848,7 +2848,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>14</v>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>14</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>14</v>
@@ -2974,7 +2974,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>14</v>
@@ -3016,7 +3016,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>14</v>
@@ -3058,7 +3058,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>14</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>14</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>14</v>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>14</v>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>14</v>
@@ -3268,7 +3268,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>14</v>
@@ -3310,7 +3310,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>14</v>
@@ -3352,7 +3352,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>14</v>
@@ -3376,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>18</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>14</v>
@@ -3435,8 +3435,8 @@
       <c r="N24" s="9"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>1168</v>
+      <c r="A25" s="6">
+        <v>1178</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>14</v>
@@ -3477,8 +3477,8 @@
       <c r="N25" s="13"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>1168</v>
+      <c r="A26" s="6">
+        <v>1178</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>14</v>
@@ -3520,7 +3520,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>14</v>
@@ -3562,7 +3562,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>14</v>
@@ -3604,7 +3604,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>14</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>14</v>
@@ -3688,7 +3688,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>14</v>
@@ -3730,7 +3730,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>14</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>14</v>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>14</v>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>14</v>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>14</v>
@@ -3940,7 +3940,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>14</v>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>14</v>
@@ -4024,7 +4024,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>14</v>
@@ -4066,7 +4066,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>14</v>
@@ -4108,7 +4108,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>14</v>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>14</v>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>14</v>
@@ -4234,7 +4234,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>14</v>
@@ -4276,7 +4276,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>14</v>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>14</v>
@@ -4360,7 +4360,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>14</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>14</v>
@@ -4443,8 +4443,8 @@
       <c r="N48" s="9"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
-        <v>1168</v>
+      <c r="A49" s="6">
+        <v>1178</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>14</v>
@@ -4493,8 +4493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4596,7 +4596,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="3">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
@@ -4604,8 +4604,8 @@
       <c r="H3" s="3">
         <v>1</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>24</v>
+      <c r="I3" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>18</v>
@@ -4638,7 +4638,7 @@
         <v>36</v>
       </c>
       <c r="F4" s="7">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G4" s="7">
         <v>1</v>
@@ -4647,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>18</v>
@@ -4680,7 +4680,7 @@
         <v>36</v>
       </c>
       <c r="F5" s="7">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G5" s="7">
         <v>1</v>
@@ -4689,7 +4689,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>18</v>
@@ -4722,7 +4722,7 @@
         <v>36</v>
       </c>
       <c r="F6" s="7">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
@@ -4731,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>18</v>
@@ -4764,7 +4764,7 @@
         <v>36</v>
       </c>
       <c r="F7" s="7">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G7" s="7">
         <v>1</v>
@@ -4773,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>18</v>
@@ -4806,7 +4806,7 @@
         <v>36</v>
       </c>
       <c r="F8" s="7">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G8" s="7">
         <v>1</v>
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>18</v>
@@ -4848,7 +4848,7 @@
         <v>36</v>
       </c>
       <c r="F9" s="7">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G9" s="7">
         <v>1</v>
@@ -4857,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>18</v>
